--- a/Project_python/out/matrix_classification_abstract_conclus.xlsx
+++ b/Project_python/out/matrix_classification_abstract_conclus.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.046021405274034505]</t>
+          <t>[0.08948986536596377]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.052367652630870336]</t>
+          <t>[0.047130352839173946]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.01979348337514339, 0.013201742452202587]</t>
+          <t>[0.020847017640058217, 0.013056696533505713]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.05858992030706983]</t>
+          <t>[0.062325446213676694]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -600,7 +600,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.028989447528879917]</t>
+          <t>[0.0360481374687929]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.04041127467705898]</t>
+          <t>[0.036420925825243984]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.13829595738519623]</t>
+          <t>[0.13947607804231035]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.0383793785378177]</t>
+          <t>[0.07030515376298183]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,24 +724,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>[13]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>[2]</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[2]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.02115750294098346]</t>
+          <t>[0.0489756322810883]</t>
         </is>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.06622524262158842]</t>
+          <t>[0.06641342974642786]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.031139393275737417]</t>
+          <t>[0.03150302630577373]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.11466849261054178]</t>
+          <t>[0.11493793048710388]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.06128355572942972]</t>
+          <t>[0.06641726020408015]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -879,7 +879,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3, 17]</t>
+          <t>[17, 3]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.016813114758315182, 0.011565603875137978]</t>
+          <t>[0.02104694326286252, 0.018579265093469934]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.07491855430796376]</t>
+          <t>[0.08262138823636206]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.05783220594448337]</t>
+          <t>[0.0503376127482153]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.027273872076081673]</t>
+          <t>[0.025796505579213855]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.03574929719646743]</t>
+          <t>[0.033368973298927775]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.03588867603402542, 0.0190826568800856]</t>
+          <t>[0.0747110353077382, 0.01994848255867135]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.011400233382327547]</t>
+          <t>[0.012392425512575918]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.02412502867563885]</t>
+          <t>[0.025951886946177023]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.04328479381350135]</t>
+          <t>[0.033125161025332965]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.04482222763682742]</t>
+          <t>[0.09060226332072199]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.03435795957303046]</t>
+          <t>[0.036851508209686155]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.03323018516764776, 0.030270103929396486]</t>
+          <t>[0.03437298397534712, 0.022882596057452263]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[8, 12]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.023532877278579487, 0.02034434012409106]</t>
+          <t>[0.02058476725818966, 0.018079938124750883]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.03589469245892199]</t>
+          <t>[0.04222100112321772]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.10361760613382416]</t>
+          <t>[0.11382774587019179]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.01507490506649074]</t>
+          <t>[0.016538872717160067]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[4, 17]</t>
+          <t>[17, 4]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.021159293968685485, 0.017065210084933224]</t>
+          <t>[0.02664437861788299, 0.018876996937648514]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.041955100792281326]</t>
+          <t>[0.037175995183436054]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.03353753889207834]</t>
+          <t>[0.02989080741456276]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1468,24 +1468,24 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.05690222286312442]</t>
+          <t>[0.06787141568249835]</t>
         </is>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.055415092669951954]</t>
+          <t>[0.06078096981813542]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.0319933722689422]</t>
+          <t>[0.03437125764460769]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.024421895806484673]</t>
+          <t>[0.03850000383669628]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.024160396883977007]</t>
+          <t>[0.025405641402941638]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.033804836413955354]</t>
+          <t>[0.035369923403507336]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.023028505463524286]</t>
+          <t>[0.024872343890414872]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.03406695419537206]</t>
+          <t>[0.04969060795434736]</t>
         </is>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.05988029414503809]</t>
+          <t>[0.06526176122822075]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.0471799511074782]</t>
+          <t>[0.05033218695568226]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.026851449801905455]</t>
+          <t>[0.028410013059383933]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.02370085561856155]</t>
+          <t>[0.04080058982175444]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.02324358766692692, 0.01877931964435694]</t>
+          <t>[0.02128430895209145, 0.017730320543037047]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.028719760537541612]</t>
+          <t>[0.031707354975856646]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.018801655707742827, 0.011974974966913934]</t>
+          <t>[0.01967075657981734, 0.012475845505663705]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.021928148698571317]</t>
+          <t>[0.017147299803789734]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.06654639041927403]</t>
+          <t>[0.05902746776262217]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.03620419317148521]</t>
+          <t>[0.04106163514621597]</t>
         </is>
       </c>
       <c r="F51" t="b">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.13036424328869115]</t>
+          <t>[0.11540547797791356]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2057,24 +2057,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>[1]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.04605906465581422]</t>
+          <t>[0.045757135646152663]</t>
         </is>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2088,24 +2088,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.038621389255267716]</t>
+          <t>[0.054240810680078536]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.07335447201901775]</t>
+          <t>[0.06553526316693872]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,24 +2150,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.023720267483010257]</t>
+          <t>[0.044936738637248154]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.04388841935536228]</t>
+          <t>[0.07394471553357472]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.03015389920799447]</t>
+          <t>[0.026730747509507734]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.026713044987330674]</t>
+          <t>[0.030300358155903456]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.02495857496622351]</t>
+          <t>[0.02697484759223559]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.14110516442101775]</t>
+          <t>[0.15172050973917364]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.11579686520868242]</t>
+          <t>[0.12519732418179666]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.049192190989931606]</t>
+          <t>[0.05180385529348586]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.05305333001628068]</t>
+          <t>[0.056343272308748506]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.12943039105833434]</t>
+          <t>[0.14013894717321915]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.08192371449088792]</t>
+          <t>[0.15350660448678943]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.028177751654890157]</t>
+          <t>[0.027989565154741543]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.0178142816413561]</t>
+          <t>[0.01818672616223885]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.0507901204122424]</t>
+          <t>[0.05317263672009062]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.07975728885682845]</t>
+          <t>[0.0751295797662467]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2615,24 +2615,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>[6]</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>[6]</t>
-        </is>
-      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.03306173741900685]</t>
+          <t>[0.06412934775518915]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.07411317600299622]</t>
+          <t>[0.07089750287006154]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.038985563156137604, 0.017525903294837202]</t>
+          <t>[0.03688711010572825, 0.03253541184208219]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.1536479428294033]</t>
+          <t>[0.1588609502940752]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.021583086281797347]</t>
+          <t>[0.03826612680124413]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.13311618906277792]</t>
+          <t>[0.056318127166568116]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.09140547586898069]</t>
+          <t>[0.06715498054581977]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2832,24 +2832,24 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>[8]</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>[8]</t>
-        </is>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.04426595715232259]</t>
+          <t>[0.05892000217132878]</t>
         </is>
       </c>
       <c r="F78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[17, 8]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.06270454759060405, 0.030537189702749667]</t>
+          <t>[0.05141935041921366, 0.04627014271922773]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.0366681567071304]</t>
+          <t>[0.07121060886851173]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.18067988992726602]</t>
+          <t>[0.12749958381500837]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.12046697650695544, 0.019943936165947387]</t>
+          <t>[0.0868053680479327, 0.030550297912689456]</t>
         </is>
       </c>
       <c r="F82" t="b">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.032615368618034137]</t>
+          <t>[0.048606346590827874]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.04831801412160686]</t>
+          <t>[0.047780646484081285]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.042916148501778884]</t>
+          <t>[0.04452578861672944]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3090,14 +3090,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.045928770504198725]</t>
+          <t>[0.026271606653695507]</t>
         </is>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[7, 9]</t>
+          <t>[9, 12]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.06563139796765464, 0.06552966243248623]</t>
+          <t>[0.05599335841763491, 0.028194581800187253]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.16267910190631246, 0.02880007540598083]</t>
+          <t>[0.16843231446704962, 0.05694230963662006]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[17, 6]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.1612980381744137, 0.09832430444600186]</t>
+          <t>[0.19101625600816666, 0.1677628709250683]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.02399985833897006, 0.01742041575911161]</t>
+          <t>[0.025752286583396504, 0.019388378696567853]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.057232347161242036]</t>
+          <t>[0.04545127279316479]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.032030411738310484]</t>
+          <t>[0.032313619611765446]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.029956585996506028]</t>
+          <t>[0.03191993058553606]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.027465348451043748]</t>
+          <t>[0.032299701550656534]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.018580460248596654]</t>
+          <t>[0.020081367214719578]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.18543908290191324]</t>
+          <t>[0.19166083359693994]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.03150194533594405]</t>
+          <t>[0.030892201137210952]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.04952641016357614]</t>
+          <t>[0.05113750867561858]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.2239402994913886]</t>
+          <t>[0.2315176873468645]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.010143205544993308]</t>
+          <t>[0.010298914945051647]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.02914759208557382]</t>
+          <t>[0.02662371240225357]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.09296256589094959]</t>
+          <t>[0.09571441097329389]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.042955609361228116]</t>
+          <t>[0.04263184999082741]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.0865814902579367]</t>
+          <t>[0.0897215281852492]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.13928791815954505]</t>
+          <t>[0.13049498004228452]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02518081689054145]</t>
+          <t>[0.0193430354920434]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.021938237203703977]</t>
+          <t>[0.023885552252553573]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.02462451896432705]</t>
+          <t>[0.03622182447633502]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.2521306892831324]</t>
+          <t>[0.23081834691103695]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.015457630077413178]</t>
+          <t>[0.030582574912143425]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.030385001142913596]</t>
+          <t>[0.12543104439340305]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.04262961941256796]</t>
+          <t>[0.052578790717560865]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.020804813708396486]</t>
+          <t>[0.02039281136110809]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.03016627293272587]</t>
+          <t>[0.02947848384754284]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.09276299497887643]</t>
+          <t>[0.089991118373094]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.07315755587763166]</t>
+          <t>[0.07136259723557144]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.106483558427527]</t>
+          <t>[0.10251533658108425]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.01933610471660899]</t>
+          <t>[0.030150003122521207]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.03445039853560512]</t>
+          <t>[0.03424467965808204]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.10269891947481953]</t>
+          <t>[0.09870094140972552]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.0986424087407484]</t>
+          <t>[0.092524158014058]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4227,24 +4227,24 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>[14]</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>[14]</t>
-        </is>
-      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.0673298613072827]</t>
+          <t>[0.08322888942730118]</t>
         </is>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.05814670666149691]</t>
+          <t>[0.05620272722294465]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.042867962425350986]</t>
+          <t>[0.04022561621788317]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.020930610009703494]</t>
+          <t>[0.020501458664015395]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.12776200481336783]</t>
+          <t>[0.12203833346002801]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.0917913392054823]</t>
+          <t>[0.08631985692322859]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.1679960124489586]</t>
+          <t>[0.15773992574993087]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.16149981911615746]</t>
+          <t>[0.15192726398763537]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,24 +4475,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.04089166684162822]</t>
+          <t>[0.05898277894846124]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.09718119931761819]</t>
+          <t>[0.09201608566718905]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.09363879914673166]</t>
+          <t>[0.10326407157979661]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.018550932689831413]</t>
+          <t>[0.019608234699211625]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4599,24 +4599,24 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.015977039048053865]</t>
+          <t>[0.022990765180257004]</t>
         </is>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.03750000647274177]</t>
+          <t>[0.04141855507430169]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.03622078272787489]</t>
+          <t>[0.037838002790226026]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.0321295736921811]</t>
+          <t>[0.06404486325653455]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.04029606073946915]</t>
+          <t>[0.08361348535987788]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.016471273284689232]</t>
+          <t>[0.0224426591711756]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4795,7 +4795,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.02254759414165491]</t>
+          <t>[0.044482423592473314]</t>
         </is>
       </c>
       <c r="F141" t="b">

--- a/Project_python/out/matrix_classification_abstract_conclus.xlsx
+++ b/Project_python/out/matrix_classification_abstract_conclus.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.08948986536596377]</t>
+          <t>[0.031182741537792085]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.047130352839173946]</t>
+          <t>[0.053509534968658866]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.020847017640058217, 0.013056696533505713]</t>
+          <t>[0.019640032360388325, 0.01370722709009351]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.062325446213676694]</t>
+          <t>[0.07174878851128279]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -600,7 +600,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.0360481374687929]</t>
+          <t>[0.03065282693402573]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.036420925825243984]</t>
+          <t>[0.04116482882465846]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.13947607804231035]</t>
+          <t>[0.13970676342104543]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.07030515376298183]</t>
+          <t>[0.03836882314173625]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,7 +724,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,14 +734,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.0489756322810883]</t>
+          <t>[0.021331179225175426]</t>
         </is>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.06641342974642786]</t>
+          <t>[0.06566609570954665]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.03150302630577373]</t>
+          <t>[0.031846023204497344]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.11493793048710388]</t>
+          <t>[0.11474611332240132]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.06641726020408015]</t>
+          <t>[0.0619882042508856]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -879,7 +879,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[17, 3]</t>
+          <t>[3, 12]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.02104694326286252, 0.018579265093469934]</t>
+          <t>[0.016492586175085498, 0.012897248146517028]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.08262138823636206]</t>
+          <t>[0.07565362855385764]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.0503376127482153]</t>
+          <t>[0.05810094217687161]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.025796505579213855]</t>
+          <t>[0.0281373744290453]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.033368973298927775]</t>
+          <t>[0.03551606428959563]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[17, 12]</t>
+          <t>[12, 14]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.0747110353077382, 0.01994848255867135]</t>
+          <t>[0.03173461414031598, 0.021571640121751015]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.012392425512575918]</t>
+          <t>[0.013649181654103308]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.025951886946177023]</t>
+          <t>[0.02149723328291842]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.033125161025332965]</t>
+          <t>[0.03373962049711653]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.09060226332072199]</t>
+          <t>[0.027034355214546966]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.036851508209686155]</t>
+          <t>[0.03161102745188171]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.03437298397534712, 0.022882596057452263]</t>
+          <t>[0.035701978192539036, 0.024532540205304855]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[12, 8]</t>
+          <t>[8, 12]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.02058476725818966, 0.018079938124750883]</t>
+          <t>[0.020721953257121627, 0.019692159853002347]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.04222100112321772]</t>
+          <t>[0.04348911278319434]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.11382774587019179]</t>
+          <t>[0.10397786410281123]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.016538872717160067]</t>
+          <t>[0.014102046056969408]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[17, 4]</t>
+          <t>[4, 12]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.02664437861788299, 0.018876996937648514]</t>
+          <t>[0.022205455753557594, 0.018933137424945175]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.037175995183436054]</t>
+          <t>[0.04379446944739897]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.02989080741456276]</t>
+          <t>[0.03393388472351098]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1478,14 +1478,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.06787141568249835]</t>
+          <t>[0.057187376359176374]</t>
         </is>
       </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.06078096981813542]</t>
+          <t>[0.05559682110912466]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.03437125764460769]</t>
+          <t>[0.032827364517249796]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.03850000383669628]</t>
+          <t>[0.032314343323113816]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.025405641402941638]</t>
+          <t>[0.03140416666948849]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.035369923403507336]</t>
+          <t>[0.0348108148777667]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.024872343890414872]</t>
+          <t>[0.02403416532293623]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.04969060795434736]</t>
+          <t>[0.03417595286623455]</t>
         </is>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.06526176122822075]</t>
+          <t>[0.06027959052394214]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.05033218695568226]</t>
+          <t>[0.047558405772828216]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.028410013059383933]</t>
+          <t>[0.03495462275844582]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1809,7 +1809,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.04080058982175444]</t>
+          <t>[0.027386266885532595]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.02128430895209145, 0.017730320543037047]</t>
+          <t>[0.023839404880642692, 0.01849215643272323]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.031707354975856646]</t>
+          <t>[0.039338553692112435]</t>
         </is>
       </c>
       <c r="F47" t="b">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.01967075657981734, 0.012475845505663705]</t>
+          <t>[0.019165649958914285, 0.012732922417311545]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.017147299803789734]</t>
+          <t>[0.016865013896434536]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.05902746776262217]</t>
+          <t>[0.06763536882556621]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2005,14 +2005,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.04106163514621597]</t>
+          <t>[0.035751003388225976]</t>
         </is>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.11540547797791356]</t>
+          <t>[0.1376862092116579]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2067,14 +2067,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.045757135646152663]</t>
+          <t>[0.047528826539375964]</t>
         </is>
       </c>
       <c r="F53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.054240810680078536]</t>
+          <t>[0.042124972154876025]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.06553526316693872]</t>
+          <t>[0.07491625308333003]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2160,14 +2160,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.044936738637248154]</t>
+          <t>[0.026484850422179775]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.07394471553357472]</t>
+          <t>[0.018082439492092338]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.026730747509507734]</t>
+          <t>[0.030396194812912652]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.030300358155903456]</t>
+          <t>[0.02336144930695153]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.02697484759223559]</t>
+          <t>[0.029911820244757834]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.15172050973917364]</t>
+          <t>[0.08619929845066962]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2346,14 +2346,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.12519732418179666]</t>
+          <t>[0.07673646116373664]</t>
         </is>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.05180385529348586]</t>
+          <t>[0.0646061078984793]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.056343272308748506]</t>
+          <t>[0.06888434811789544]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.14013894717321915]</t>
+          <t>[0.1366877177797366]</t>
         </is>
       </c>
       <c r="F65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.15350660448678943]</t>
+          <t>[0.05047084218935157]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.027989565154741543]</t>
+          <t>[0.0328798443880367]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.01818672616223885]</t>
+          <t>[0.02371619125450789]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.05317263672009062]</t>
+          <t>[0.052917633821494385]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.0751295797662467]</t>
+          <t>[0.07994851680879966]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.06412934775518915]</t>
+          <t>[0.03379213612182383]</t>
         </is>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.07089750287006154]</t>
+          <t>[0.07407315158303963]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[15, 17]</t>
+          <t>[15, 12]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.03688711010572825, 0.03253541184208219]</t>
+          <t>[0.03955681231206164, 0.015554132798176601]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.1588609502940752]</t>
+          <t>[0.1532169291661023]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.03826612680124413]</t>
+          <t>[0.02420024237627512]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.056318127166568116]</t>
+          <t>[0.138831801846661]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.06715498054581977]</t>
+          <t>[0.07008526424143305]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.05892000217132878]</t>
+          <t>[0.0472001599331693]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[17, 8]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.05141935041921366, 0.04627014271922773]</t>
+          <t>[0.04530576851062445, 0.022493929483545224]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.07121060886851173]</t>
+          <t>[0.029690911000269538]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.12749958381500837]</t>
+          <t>[0.1402327694667943]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.0868053680479327, 0.030550297912689456]</t>
+          <t>[0.09163676502345101, 0.017658438967262626]</t>
         </is>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.048606346590827874]</t>
+          <t>[0.03300731896310603]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.047780646484081285]</t>
+          <t>[0.035578052594340555]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.04452578861672944]</t>
+          <t>[0.04318129129322483]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,24 +3080,24 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>[9]</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>[9]</t>
-        </is>
-      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.026271606653695507]</t>
+          <t>[0.047010015057298994]</t>
         </is>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[9, 12]</t>
+          <t>[7, 9]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.05599335841763491, 0.028194581800187253]</t>
+          <t>[0.0672748977520496, 0.06439013680236479]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.16843231446704962, 0.05694230963662006]</t>
+          <t>[0.16595972502967757, 0.028272365090466683]</t>
         </is>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[17, 6]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.19101625600816666, 0.1677628709250683]</t>
+          <t>[0.1624146838533691, 0.04889068966631342]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3214,14 +3214,14 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.025752286583396504, 0.019388378696567853]</t>
+          <t>[0.0263846106935115, 0.01609328909246266]</t>
         </is>
       </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.04545127279316479]</t>
+          <t>[0.04230817582494201]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.032313619611765446]</t>
+          <t>[0.03266215416238183]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.03191993058553606]</t>
+          <t>[0.03916299754196812]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.032299701550656534]</t>
+          <t>[0.03645715022617626]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.020081367214719578]</t>
+          <t>[0.023645357503348997]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.19166083359693994]</t>
+          <t>[0.18545637761567987]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.030892201137210952]</t>
+          <t>[0.02350633996661696]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.05113750867561858]</t>
+          <t>[0.049330242256630984]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.2315176873468645]</t>
+          <t>[0.22755626659558204]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.010298914945051647]</t>
+          <t>[0.012930047182451252]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.02662371240225357]</t>
+          <t>[0.028204309156407318]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.09571441097329389]</t>
+          <t>[0.09317942656075325]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.04263184999082741]</t>
+          <t>[0.04296056759813417]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.0897215281852492]</t>
+          <t>[0.08670545333836512]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.13049498004228452]</t>
+          <t>[0.13813934679314474]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.0193430354920434]</t>
+          <t>[0.017844373760934205]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.023885552252553573]</t>
+          <t>[0.01925651632295376]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.03622182447633502]</t>
+          <t>[0.02683791302457871]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.23081834691103695]</t>
+          <t>[0.2597562763670423]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.030582574912143425]</t>
+          <t>[0.013420402562215392]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.12543104439340305]</t>
+          <t>[0.030881297225844945]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.052578790717560865]</t>
+          <t>[0.046178044472102255]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.02039281136110809]</t>
+          <t>[0.02068646945744948]</t>
         </is>
       </c>
       <c r="F114" t="b">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.02947848384754284]</t>
+          <t>[0.0312635665245155]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.089991118373094]</t>
+          <t>[0.09611928325644957]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.07136259723557144]</t>
+          <t>[0.07609998902573213]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10251533658108425]</t>
+          <t>[0.10991973385038788]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.030150003122521207]</t>
+          <t>[0.014068976797029922]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.03424467965808204]</t>
+          <t>[0.03547894528899582]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.09870094140972552]</t>
+          <t>[0.10433579284005574]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.092524158014058]</t>
+          <t>[0.1013361913743126]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4227,7 +4227,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4237,14 +4237,14 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.08322888942730118]</t>
+          <t>[0.07196240150773175]</t>
         </is>
       </c>
       <c r="F123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.05620272722294465]</t>
+          <t>[0.05759269883248465]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.04022561621788317]</t>
+          <t>[0.042732471413701345]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.020501458664015395]</t>
+          <t>[0.020672238732552747]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.12203833346002801]</t>
+          <t>[0.1270537783036888]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.08631985692322859]</t>
+          <t>[0.09110643826739308]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.15773992574993087]</t>
+          <t>[0.16667260772180176]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.15192726398763537]</t>
+          <t>[0.1627780995556489]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4485,14 +4485,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.05898277894846124]</t>
+          <t>[0.04076838383994152]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.09201608566718905]</t>
+          <t>[0.09682866827377506]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.10326407157979661]</t>
+          <t>[0.09699567174113606]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.019608234699211625]</t>
+          <t>[0.02092378652736774]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.022990765180257004]</t>
+          <t>[0.015976080226707805]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.04141855507430169]</t>
+          <t>[0.04105684470568684]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.037838002790226026]</t>
+          <t>[0.0378209597408144]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.06404486325653455]</t>
+          <t>[0.03253427275881579]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.08361348535987788]</t>
+          <t>[0.021841863797654192]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.0224426591711756]</t>
+          <t>[0.01788248400045467]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4785,24 +4785,24 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>[17]</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>[17]</t>
-        </is>
-      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.044482423592473314]</t>
+          <t>[0.023896062565723717]</t>
         </is>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
